--- a/quizzes/HIM6217-question-bank.xlsx
+++ b/quizzes/HIM6217-question-bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ucf-teaching\HIM6217-21S\quizzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B23FCBEF-05BB-4E3B-A157-E2B5E72E8203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CCDE5-4130-4628-8F02-38EE33DBE02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="-120" windowWidth="26685" windowHeight="16440" xr2:uid="{94BA6AB0-F506-4E1F-84FD-5D8C0CF6C56D}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{94BA6AB0-F506-4E1F-84FD-5D8C0CF6C56D}"/>
   </bookViews>
   <sheets>
     <sheet name="nield" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>What months would be selected with the following expression: WHERE month % 4 = 0</t>
   </si>
   <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>August</t>
   </si>
   <si>
@@ -1711,6 +1708,9 @@
   </si>
   <si>
     <t>In SQLite the AUTOINCREMENT constraint is necessary</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -2176,10 +2176,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DAC4A1-C8EF-481C-9F6B-167182D04F2F}">
   <dimension ref="A1:AK151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,25 +2338,25 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>494</v>
-      </c>
       <c r="K2" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>127</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="30" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8" t="s">
@@ -3720,7 +3720,7 @@
         <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="8" t="s">
@@ -3744,7 +3744,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="8" t="s">
@@ -3771,7 +3771,7 @@
         <v>36</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="8" t="s">
@@ -3813,7 +3813,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="8" t="s">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
@@ -3897,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8" t="s">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="8" t="s">
@@ -3945,7 +3945,7 @@
         <v>36</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="8" t="s">
@@ -3955,34 +3955,34 @@
         <v>39</v>
       </c>
       <c r="I53" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="J53" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="K53" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="L53" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="M53" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="N53" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="O53" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="O53" s="16" t="s">
+      <c r="P53" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="P53" s="16" t="s">
+      <c r="Q53" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="Q53" s="16" t="s">
+      <c r="R53" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3997,11 +3997,11 @@
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>232</v>
@@ -4021,11 +4021,11 @@
         <v>35</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>233</v>
@@ -4045,32 +4045,32 @@
         <v>34</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="I56" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="M56" s="16" t="s">
-        <v>258</v>
-      </c>
       <c r="N56" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -4087,29 +4087,29 @@
         <v>35</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I57" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>240</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -4126,26 +4126,26 @@
         <v>35</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="H58" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="I58" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J58" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="J58" s="16" t="s">
-        <v>263</v>
-      </c>
       <c r="K58" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>159</v>
@@ -4165,11 +4165,11 @@
         <v>35</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>233</v>
@@ -4189,11 +4189,11 @@
         <v>35</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>232</v>
@@ -4213,11 +4213,11 @@
         <v>35</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>232</v>
@@ -4237,11 +4237,11 @@
         <v>35</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>233</v>
@@ -4259,11 +4259,11 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>233</v>
@@ -4283,11 +4283,11 @@
         <v>35</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>232</v>
@@ -4307,26 +4307,26 @@
         <v>36</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>136</v>
       </c>
       <c r="I65" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J65" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="K65" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>278</v>
-      </c>
       <c r="L65" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -4343,11 +4343,11 @@
         <v>35</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>233</v>
@@ -4367,11 +4367,11 @@
         <v>35</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>233</v>
@@ -4391,11 +4391,11 @@
         <v>35</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>233</v>
@@ -4415,17 +4415,17 @@
         <v>37</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I69" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="J69" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4442,11 +4442,11 @@
         <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>232</v>
@@ -4466,26 +4466,26 @@
         <v>36</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I71" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="L71" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -4502,11 +4502,11 @@
         <v>35</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>232</v>
@@ -4526,11 +4526,11 @@
         <v>35</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>232</v>
@@ -4550,11 +4550,11 @@
         <v>35</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>232</v>
@@ -4574,11 +4574,11 @@
         <v>35</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>232</v>
@@ -4598,35 +4598,35 @@
         <v>36</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I76" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="J76" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="K76" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="L76" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="L76" s="16" t="s">
+      <c r="M76" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="M76" s="16" t="s">
-        <v>333</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -4643,38 +4643,38 @@
         <v>36</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I77" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="K77" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J77" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="K77" s="16" t="s">
+      <c r="L77" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="L77" s="16" t="s">
+      <c r="M77" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="M77" s="16" t="s">
+      <c r="N77" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="N77" s="16" t="s">
+      <c r="O77" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="O77" s="16" t="s">
+      <c r="P77" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="P77" s="16" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -4691,11 +4691,11 @@
         <v>35</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>233</v>
@@ -4715,11 +4715,11 @@
         <v>35</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>232</v>
@@ -4739,11 +4739,11 @@
         <v>35</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>232</v>
@@ -4763,11 +4763,11 @@
         <v>35</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>233</v>
@@ -4787,11 +4787,11 @@
         <v>35</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>232</v>
@@ -4811,11 +4811,11 @@
         <v>35</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>233</v>
@@ -4835,11 +4835,11 @@
         <v>35</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>232</v>
@@ -4859,11 +4859,11 @@
         <v>35</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>233</v>
@@ -4883,11 +4883,11 @@
         <v>35</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>233</v>
@@ -4907,11 +4907,11 @@
         <v>35</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>232</v>
@@ -4931,11 +4931,11 @@
         <v>35</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>233</v>
@@ -4955,17 +4955,17 @@
         <v>37</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I89" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J89" s="16" t="s">
         <v>355</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4982,17 +4982,17 @@
         <v>37</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J90" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5009,11 +5009,11 @@
         <v>35</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>232</v>
@@ -5033,11 +5033,11 @@
         <v>35</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>232</v>
@@ -5057,11 +5057,11 @@
         <v>35</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>232</v>
@@ -5081,11 +5081,11 @@
         <v>35</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H94" s="15" t="s">
         <v>233</v>
@@ -5105,11 +5105,11 @@
         <v>35</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>233</v>
@@ -5129,11 +5129,11 @@
         <v>35</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>232</v>
@@ -5153,11 +5153,11 @@
         <v>35</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>232</v>
@@ -5177,11 +5177,11 @@
         <v>35</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>232</v>
@@ -5201,11 +5201,11 @@
         <v>35</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>232</v>
@@ -5225,17 +5225,17 @@
         <v>37</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I100" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>393</v>
-      </c>
       <c r="J100" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5252,17 +5252,17 @@
         <v>37</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I101" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="I101" s="16" t="s">
-        <v>395</v>
-      </c>
       <c r="J101" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5279,17 +5279,17 @@
         <v>37</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I102" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="I102" s="16" t="s">
+      <c r="J102" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5306,17 +5306,17 @@
         <v>37</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I103" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="J103" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5333,17 +5333,17 @@
         <v>37</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I104" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="I104" s="16" t="s">
+      <c r="J104" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5360,11 +5360,11 @@
         <v>35</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>232</v>
@@ -5384,11 +5384,11 @@
         <v>35</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H106" s="15" t="s">
         <v>233</v>
@@ -5408,11 +5408,11 @@
         <v>35</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>232</v>
@@ -5432,11 +5432,11 @@
         <v>35</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>232</v>
@@ -5456,11 +5456,11 @@
         <v>35</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>232</v>
@@ -5480,11 +5480,11 @@
         <v>35</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>233</v>
@@ -5504,11 +5504,11 @@
         <v>35</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>232</v>
@@ -5528,26 +5528,26 @@
         <v>36</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I112" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J112" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J112" s="16" t="s">
+      <c r="K112" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K112" s="16" t="s">
+      <c r="L112" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L112" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -5564,26 +5564,26 @@
         <v>34</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I113" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J113" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J113" s="16" t="s">
+      <c r="K113" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="L113" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L113" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -5600,26 +5600,26 @@
         <v>34</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I114" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J114" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J114" s="16" t="s">
+      <c r="K114" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="L114" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L114" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -5636,26 +5636,26 @@
         <v>34</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F115" s="7"/>
       <c r="G115" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I115" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J115" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J115" s="16" t="s">
+      <c r="K115" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K115" s="16" t="s">
+      <c r="L115" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L115" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -5672,26 +5672,26 @@
         <v>34</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I116" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J116" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J116" s="16" t="s">
+      <c r="K116" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="L116" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L116" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -5708,26 +5708,26 @@
         <v>34</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I117" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J117" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J117" s="16" t="s">
+      <c r="K117" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K117" s="16" t="s">
+      <c r="L117" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L117" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -5744,26 +5744,26 @@
         <v>34</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I118" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J118" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J118" s="16" t="s">
+      <c r="K118" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="L118" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L118" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -5780,26 +5780,26 @@
         <v>34</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I119" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J119" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J119" s="16" t="s">
+      <c r="K119" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K119" s="16" t="s">
+      <c r="L119" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L119" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -5816,26 +5816,26 @@
         <v>36</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I120" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J120" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J120" s="16" t="s">
+      <c r="K120" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K120" s="16" t="s">
+      <c r="L120" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="L120" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -5852,11 +5852,11 @@
         <v>35</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>232</v>
@@ -5876,11 +5876,11 @@
         <v>35</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>233</v>
@@ -5900,11 +5900,11 @@
         <v>35</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H123" s="15" t="s">
         <v>233</v>
@@ -5924,11 +5924,11 @@
         <v>35</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H124" s="15" t="s">
         <v>232</v>
@@ -5948,11 +5948,11 @@
         <v>35</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>232</v>
@@ -5972,41 +5972,41 @@
         <v>36</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H126" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I126" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="J126" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="J126" s="16" t="s">
+      <c r="K126" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="K126" s="16" t="s">
+      <c r="L126" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="M126" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="L126" s="16" t="s">
+      <c r="N126" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="O126" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="M126" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="N126" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O126" s="16" t="s">
+      <c r="P126" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="P126" s="16" t="s">
+      <c r="Q126" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="Q126" s="16" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -6023,41 +6023,41 @@
         <v>36</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I127" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="J127" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="J127" s="16" t="s">
+      <c r="K127" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="K127" s="16" t="s">
+      <c r="L127" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="M127" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="L127" s="16" t="s">
+      <c r="N127" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="O127" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="M127" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="N127" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O127" s="16" t="s">
+      <c r="P127" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="P127" s="16" t="s">
+      <c r="Q127" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="Q127" s="16" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -6074,11 +6074,11 @@
         <v>35</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H128" s="15" t="s">
         <v>232</v>
@@ -6098,14 +6098,14 @@
         <v>37</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6122,14 +6122,14 @@
         <v>37</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -6146,11 +6146,11 @@
         <v>35</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H131" s="15" t="s">
         <v>233</v>
@@ -6170,11 +6170,11 @@
         <v>35</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H132" s="15" t="s">
         <v>232</v>
@@ -6194,11 +6194,11 @@
         <v>35</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>233</v>
@@ -6218,11 +6218,11 @@
         <v>35</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F134" s="18"/>
       <c r="G134" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H134" s="15" t="s">
         <v>232</v>
@@ -6242,14 +6242,14 @@
         <v>37</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F135" s="18"/>
       <c r="G135" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -6266,11 +6266,11 @@
         <v>35</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H136" s="15" t="s">
         <v>233</v>
@@ -6290,11 +6290,11 @@
         <v>35</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H137" s="15" t="s">
         <v>233</v>
@@ -6314,23 +6314,23 @@
         <v>37</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="I138" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="I138" s="16" t="s">
+      <c r="J138" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="J138" s="16" t="s">
+      <c r="K138" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="K138" s="16" t="s">
+      <c r="L138" s="16" t="s">
         <v>484</v>
-      </c>
-      <c r="L138" s="16" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6347,11 +6347,11 @@
         <v>35</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H139" s="15" t="s">
         <v>233</v>
@@ -6371,11 +6371,11 @@
         <v>35</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H140" s="15" t="s">
         <v>232</v>
@@ -6395,11 +6395,11 @@
         <v>35</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H141" s="15" t="s">
         <v>233</v>
@@ -6419,11 +6419,11 @@
         <v>35</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H142" s="15" t="s">
         <v>232</v>
@@ -6443,11 +6443,11 @@
         <v>35</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F143" s="18"/>
       <c r="G143" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H143" s="15" t="s">
         <v>232</v>
@@ -6467,11 +6467,11 @@
         <v>35</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F144" s="18"/>
       <c r="G144" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>233</v>
@@ -6491,11 +6491,11 @@
         <v>35</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F145" s="18"/>
       <c r="G145" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>233</v>
@@ -6515,35 +6515,35 @@
         <v>36</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I146" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="H146" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="I146" s="16" t="s">
+      <c r="J146" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J146" s="16" t="s">
-        <v>500</v>
       </c>
       <c r="K146" s="16" t="s">
         <v>61</v>
       </c>
       <c r="L146" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="M146" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="M146" s="16" t="s">
+      <c r="N146" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="N146" s="16" t="s">
+      <c r="O146" s="16" t="s">
         <v>503</v>
-      </c>
-      <c r="O146" s="16" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -6560,32 +6560,32 @@
         <v>36</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I147" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="H147" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="I147" s="16" t="s">
+      <c r="J147" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="J147" s="16" t="s">
+      <c r="K147" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="K147" s="16" t="s">
+      <c r="L147" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="L147" s="16" t="s">
+      <c r="M147" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="M147" s="16" t="s">
+      <c r="N147" s="16" t="s">
         <v>510</v>
-      </c>
-      <c r="N147" s="16" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -6602,40 +6602,40 @@
         <v>36</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>109</v>
       </c>
       <c r="J148" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="K148" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="K148" s="16" t="s">
+      <c r="L148" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="L148" s="16" t="s">
+      <c r="M148" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="M148" s="16" t="s">
+      <c r="N148" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="N148" s="16" t="s">
+      <c r="O148" s="16" t="s">
         <v>517</v>
-      </c>
-      <c r="O148" s="16" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G149" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H149" s="15" t="s">
         <v>233</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="150" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="G150" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H150" s="15" t="s">
         <v>232</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G151" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H151" s="15" t="s">
         <v>233</v>
